--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220509_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220509_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="253">
   <si>
     <t>사이트</t>
   </si>
@@ -676,6 +676,9 @@
     <t>사이렌 Remix</t>
   </si>
   <si>
+    <t>P NATION</t>
+  </si>
+  <si>
     <t>YG</t>
   </si>
   <si>
@@ -700,9 +703,6 @@
     <t>MORE VISION</t>
   </si>
   <si>
-    <t>P NATION</t>
-  </si>
-  <si>
     <t>꿈의엔진</t>
   </si>
   <si>
@@ -752,6 +752,9 @@
   </si>
   <si>
     <t>YUE HUA</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>매직스트로베리 사운드</t>
@@ -1178,6 +1181,12 @@
       <c r="F2" t="s">
         <v>169</v>
       </c>
+      <c r="G2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
@@ -1199,10 +1208,10 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1225,10 +1234,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1251,7 +1260,7 @@
         <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H5" t="s">
         <v>232</v>
@@ -1277,7 +1286,7 @@
         <v>171</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
         <v>232</v>
@@ -1303,7 +1312,7 @@
         <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
         <v>232</v>
@@ -1329,10 +1338,10 @@
         <v>173</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1355,7 +1364,7 @@
         <v>174</v>
       </c>
       <c r="G9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H9" t="s">
         <v>232</v>
@@ -1381,7 +1390,7 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H10" t="s">
         <v>232</v>
@@ -1407,10 +1416,10 @@
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1433,7 +1442,7 @@
         <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H12" t="s">
         <v>232</v>
@@ -1459,7 +1468,7 @@
         <v>174</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H13" t="s">
         <v>232</v>
@@ -1485,7 +1494,7 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H14" t="s">
         <v>232</v>
@@ -1510,6 +1519,12 @@
       <c r="F15" t="s">
         <v>169</v>
       </c>
+      <c r="G15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H15" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -1557,7 +1572,7 @@
         <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H17" t="s">
         <v>232</v>
@@ -1635,10 +1650,10 @@
         <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1687,7 +1702,7 @@
         <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H22" t="s">
         <v>232</v>
@@ -1713,10 +1728,10 @@
         <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1739,7 +1754,7 @@
         <v>174</v>
       </c>
       <c r="G24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H24" t="s">
         <v>232</v>
@@ -1765,7 +1780,7 @@
         <v>174</v>
       </c>
       <c r="G25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H25" t="s">
         <v>232</v>
@@ -1791,7 +1806,7 @@
         <v>174</v>
       </c>
       <c r="G26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H26" t="s">
         <v>232</v>
@@ -1817,7 +1832,7 @@
         <v>174</v>
       </c>
       <c r="G27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H27" t="s">
         <v>232</v>
@@ -1843,7 +1858,7 @@
         <v>174</v>
       </c>
       <c r="G28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
         <v>232</v>
@@ -1869,7 +1884,7 @@
         <v>174</v>
       </c>
       <c r="G29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
         <v>232</v>
@@ -1895,7 +1910,7 @@
         <v>174</v>
       </c>
       <c r="G30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H30" t="s">
         <v>232</v>
@@ -1920,6 +1935,12 @@
       <c r="F31" t="s">
         <v>169</v>
       </c>
+      <c r="G31" t="s">
+        <v>220</v>
+      </c>
+      <c r="H31" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
@@ -1967,7 +1988,7 @@
         <v>174</v>
       </c>
       <c r="G33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s">
         <v>232</v>
@@ -1993,7 +2014,7 @@
         <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H34" t="s">
         <v>232</v>
@@ -2019,7 +2040,7 @@
         <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H35" t="s">
         <v>232</v>
@@ -2071,10 +2092,10 @@
         <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2331,10 +2352,10 @@
         <v>186</v>
       </c>
       <c r="G47" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H47" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2435,10 +2456,10 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2539,10 +2560,10 @@
         <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2721,10 +2742,10 @@
         <v>191</v>
       </c>
       <c r="G62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2773,10 +2794,10 @@
         <v>193</v>
       </c>
       <c r="G64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2825,7 +2846,7 @@
         <v>195</v>
       </c>
       <c r="G66" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="H66" t="s">
         <v>232</v>
@@ -2850,6 +2871,12 @@
       <c r="F67" t="s">
         <v>196</v>
       </c>
+      <c r="G67" t="s">
+        <v>246</v>
+      </c>
+      <c r="H67" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
@@ -2870,6 +2897,12 @@
       <c r="F68" t="s">
         <v>169</v>
       </c>
+      <c r="G68" t="s">
+        <v>220</v>
+      </c>
+      <c r="H68" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
@@ -2917,7 +2950,7 @@
         <v>198</v>
       </c>
       <c r="G70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H70" t="s">
         <v>232</v>
@@ -2969,7 +3002,7 @@
         <v>199</v>
       </c>
       <c r="G72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H72" t="s">
         <v>232</v>
@@ -3151,7 +3184,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H79" t="s">
         <v>232</v>
@@ -3177,7 +3210,7 @@
         <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H80" t="s">
         <v>232</v>
@@ -3203,7 +3236,7 @@
         <v>206</v>
       </c>
       <c r="G81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H81" t="s">
         <v>232</v>
@@ -3255,7 +3288,7 @@
         <v>208</v>
       </c>
       <c r="G83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H83" t="s">
         <v>232</v>
@@ -3332,6 +3365,12 @@
       <c r="F86" t="s">
         <v>169</v>
       </c>
+      <c r="G86" t="s">
+        <v>220</v>
+      </c>
+      <c r="H86" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
@@ -3353,10 +3392,10 @@
         <v>210</v>
       </c>
       <c r="G87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H87" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3405,10 +3444,10 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H89" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3431,10 +3470,10 @@
         <v>212</v>
       </c>
       <c r="G90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H90" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3457,7 +3496,7 @@
         <v>213</v>
       </c>
       <c r="G91" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H91" t="s">
         <v>232</v>
@@ -3483,7 +3522,7 @@
         <v>214</v>
       </c>
       <c r="G92" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H92" t="s">
         <v>232</v>
@@ -3509,7 +3548,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H93" t="s">
         <v>232</v>
@@ -3586,6 +3625,12 @@
       <c r="F96" t="s">
         <v>104</v>
       </c>
+      <c r="G96" t="s">
+        <v>233</v>
+      </c>
+      <c r="H96" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
@@ -3633,10 +3678,10 @@
         <v>217</v>
       </c>
       <c r="G98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3659,7 +3704,7 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H99" t="s">
         <v>232</v>
@@ -3683,6 +3728,12 @@
       </c>
       <c r="F100" t="s">
         <v>218</v>
+      </c>
+      <c r="G100" t="s">
+        <v>246</v>
+      </c>
+      <c r="H100" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="101" spans="1:8">

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220509_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220509_110201.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-05-09</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220509_110201.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220509_110201.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="252">
   <si>
     <t>사이트</t>
   </si>
@@ -728,9 +728,6 @@
   </si>
   <si>
     <t>SSK</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>SOURCE MUSIC</t>
@@ -2248,7 +2245,7 @@
         <v>184</v>
       </c>
       <c r="G43" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H43" t="s">
         <v>232</v>
@@ -2326,7 +2323,7 @@
         <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H46" t="s">
         <v>232</v>
@@ -2378,7 +2375,7 @@
         <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H48" t="s">
         <v>232</v>
@@ -2430,7 +2427,7 @@
         <v>187</v>
       </c>
       <c r="G50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H50" t="s">
         <v>232</v>
@@ -2482,10 +2479,10 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2508,7 +2505,7 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H53" t="s">
         <v>232</v>
@@ -2534,7 +2531,7 @@
         <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H54" t="s">
         <v>232</v>
@@ -2612,10 +2609,10 @@
         <v>188</v>
       </c>
       <c r="G57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2638,7 +2635,7 @@
         <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H58" t="s">
         <v>232</v>
@@ -2716,7 +2713,7 @@
         <v>190</v>
       </c>
       <c r="G61" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H61" t="s">
         <v>232</v>
@@ -2820,7 +2817,7 @@
         <v>194</v>
       </c>
       <c r="G65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H65" t="s">
         <v>232</v>
@@ -2872,7 +2869,7 @@
         <v>196</v>
       </c>
       <c r="G67" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H67" t="s">
         <v>232</v>
@@ -2950,7 +2947,7 @@
         <v>198</v>
       </c>
       <c r="G70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H70" t="s">
         <v>232</v>
@@ -3002,7 +2999,7 @@
         <v>199</v>
       </c>
       <c r="G72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H72" t="s">
         <v>232</v>
@@ -3132,7 +3129,7 @@
         <v>203</v>
       </c>
       <c r="G77" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H77" t="s">
         <v>232</v>
@@ -3158,10 +3155,10 @@
         <v>204</v>
       </c>
       <c r="G78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H78" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3184,7 +3181,7 @@
         <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H79" t="s">
         <v>232</v>
@@ -3210,7 +3207,7 @@
         <v>205</v>
       </c>
       <c r="G80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H80" t="s">
         <v>232</v>
@@ -3288,7 +3285,7 @@
         <v>208</v>
       </c>
       <c r="G83" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H83" t="s">
         <v>232</v>
@@ -3496,7 +3493,7 @@
         <v>213</v>
       </c>
       <c r="G91" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H91" t="s">
         <v>232</v>
@@ -3522,7 +3519,7 @@
         <v>214</v>
       </c>
       <c r="G92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H92" t="s">
         <v>232</v>
@@ -3548,7 +3545,7 @@
         <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H93" t="s">
         <v>232</v>
@@ -3600,7 +3597,7 @@
         <v>186</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H95" t="s">
         <v>232</v>
@@ -3652,7 +3649,7 @@
         <v>216</v>
       </c>
       <c r="G97" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H97" t="s">
         <v>232</v>
@@ -3730,7 +3727,7 @@
         <v>218</v>
       </c>
       <c r="G100" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H100" t="s">
         <v>232</v>
